--- a/src/main/webapp/excelTemplate/evuTotDiff.xlsx
+++ b/src/main/webapp/excelTemplate/evuTotDiff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\엑셀템플릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sk-gasUtils\src\main\webapp\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,17 +112,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -135,20 +135,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E40"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -448,244 +451,254 @@
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
